--- a/Legende.xlsx
+++ b/Legende.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Downloads\Nouveau dossier\Collo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131E226C-3E43-43BD-B15B-EE52E338618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB14ED-2008-4952-9CB9-DC7F86A2C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 6" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -949,300 +948,6 @@
         <family val="2"/>
       </rPr>
       <t>A011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>FORTIN Lorenzo,HOCRELLE Yohann,SOUVELAIN Gauthier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>DAOUIDA Salim,JAMAIN Axel,LELIEVRE Arthur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>GONCALVES Mateo,GUESTRE Matis,MASSE Nil</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>BLOT Valentin,DINAS Matthys,PETIT Axel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>CAILLOT Paul,RABET Jules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>CHAUVET Tristan,CHORFI Dounia,DUBOC Anatole</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>BELKHAOUEL Bilal,GUITEL Karl,VETIER Matheo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>BOITELLE Jeremy,BORDIER Soen,LANNEZ Clément</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>GENTIEN Clément,THOINET Maxime,VAN DER HOEVEN Leandre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>AZZAZ Nawfel,LAMQAMI Othman</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>BONATI Thomas,GOFF Paul,MARIETTE Gabin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>DESSOLE Killian,FOUILLET Suzanne,GEFFROY Pablo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>LOQUET Alexis,REPESSE Antoine,THIEBAULT Killian</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Groupe 14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>BENZAL Esteban,GUIGNARD Adrien,LHERMITTE Wilson</t>
     </r>
   </si>
 </sst>
@@ -1625,7 +1330,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -2185,123 +1890,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Legende.xlsx
+++ b/Legende.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Downloads\Nouveau dossier\Collo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB14ED-2008-4952-9CB9-DC7F86A2C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB94AC-427E-482C-A558-61F3711CC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -49,16 +49,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>lundi 16h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>A103</t>
     </r>
   </si>
@@ -90,16 +80,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>lundi 15h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>A110</t>
     </r>
   </si>
@@ -128,16 +108,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>lundi 17h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="8"/>
         <rFont val="Arial"/>
@@ -163,16 +133,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>mercredi 15h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>A205</t>
     </r>
   </si>
@@ -190,16 +150,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>mercredi 16h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="8"/>
         <rFont val="Arial"/>
@@ -256,16 +206,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>mercredi 14h25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>A104</t>
     </r>
   </si>
@@ -329,16 +269,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>mercredi 17h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>A106</t>
     </r>
   </si>
@@ -571,16 +501,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>jeudi 17h35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>salle TP</t>
     </r>
   </si>
@@ -949,6 +869,33 @@
       </rPr>
       <t>A011</t>
     </r>
+  </si>
+  <si>
+    <t>16h35</t>
+  </si>
+  <si>
+    <t>15h35</t>
+  </si>
+  <si>
+    <t>17h35</t>
+  </si>
+  <si>
+    <t>14h25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lundi </t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercredi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeudi </t>
   </si>
 </sst>
 </file>
@@ -1013,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1021,6 +968,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -1341,550 +1291,667 @@
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.6" customHeight="1">
+    <row r="1" spans="1:5" ht="12.6" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.6" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
